--- a/server/files/upload/导师初始账号数据.xlsx
+++ b/server/files/upload/导师初始账号数据.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="导师" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -169,17 +169,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -514,17 +514,17 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>2030513401</v>
       </c>
@@ -552,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2030513402</v>
       </c>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2030513403</v>
       </c>
@@ -580,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2030513404</v>
       </c>
@@ -594,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2030513405</v>
       </c>
@@ -608,7 +608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>2030513406</v>
       </c>
@@ -622,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>2030513407</v>
       </c>
@@ -636,7 +636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>2030513408</v>
       </c>
@@ -650,7 +650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>2030513409</v>
       </c>
@@ -664,7 +664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>2030513410</v>
       </c>
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>2030513411</v>
       </c>
@@ -692,7 +692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>2030513412</v>
       </c>
@@ -706,7 +706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>2030513413</v>
       </c>
@@ -720,7 +720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>2030513414</v>
       </c>
@@ -734,7 +734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>2030513415</v>
       </c>
@@ -748,7 +748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>2030513416</v>
       </c>
@@ -762,7 +762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>2030513417</v>
       </c>
@@ -776,7 +776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>2030513418</v>
       </c>
@@ -790,7 +790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>2030513419</v>
       </c>
@@ -804,7 +804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>2030513420</v>
       </c>
@@ -818,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>2030513421</v>
       </c>
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>2030513422</v>
       </c>
@@ -846,7 +846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>2030513423</v>
       </c>
@@ -860,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>2030513424</v>
       </c>
@@ -874,7 +874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>2030513425</v>
       </c>
@@ -888,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>2030513426</v>
       </c>
@@ -902,7 +902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>2030513427</v>
       </c>
@@ -916,7 +916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>2030513428</v>
       </c>
